--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>Re-tested</t>
-  </si>
-  <si>
-    <t>not yet</t>
   </si>
   <si>
     <t>Testing</t>
@@ -1512,6 +1509,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,6 +1561,63 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1554,80 +1627,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1635,47 +1654,74 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1683,6 +1729,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1710,9 +1765,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1743,51 +1795,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,33 +1804,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,53 +2138,53 @@
       <c r="B1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="D1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L2" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="L2" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="71">
+      <c r="P4" s="78">
         <v>232</v>
       </c>
-      <c r="Q4" s="73"/>
+      <c r="Q4" s="80"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2206,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2238,27 +2235,27 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C13" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D15" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
@@ -2275,7 +2272,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
@@ -2292,21 +2289,21 @@
     </row>
     <row r="19" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
-      <c r="C19" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
+      <c r="C19" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C21" s="57"/>
@@ -2357,39 +2354,39 @@
       <c r="B1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="G5" s="84" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
@@ -2404,87 +2401,87 @@
       <c r="E6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="94" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="94"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>69</v>
+      <c r="C7" s="82" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="93"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="89"/>
+      <c r="M7" s="95"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="38">
         <v>1</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>84</v>
-      </c>
       <c r="K8" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="91"/>
+        <v>90</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>70</v>
+      <c r="C9" s="82" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="39">
@@ -2494,27 +2491,27 @@
         <v>2</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="79"/>
+        <v>90</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="87"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="5"/>
       <c r="E10" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="39">
         <v>3</v>
@@ -2523,28 +2520,28 @@
         <v>4</v>
       </c>
       <c r="I10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="K10" s="17">
         <v>8729</v>
       </c>
-      <c r="L10" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="79"/>
+      <c r="L10" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="96" t="s">
-        <v>72</v>
+      <c r="C11" s="83" t="s">
+        <v>71</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="39">
@@ -2557,24 +2554,24 @@
         <v>14</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="79"/>
+        <v>90</v>
+      </c>
+      <c r="L11" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53">
         <v>6</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="59"/>
       <c r="E12" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="39">
         <v>5</v>
@@ -2583,16 +2580,16 @@
         <v>6</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12" s="52"/>
     </row>
@@ -2600,10 +2597,10 @@
       <c r="B13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="98"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="5"/>
       <c r="E13" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="39">
         <v>6</v>
@@ -2612,28 +2609,28 @@
         <v>8</v>
       </c>
       <c r="I13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="K13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="79"/>
+        <v>85</v>
+      </c>
+      <c r="L13" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>8</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>89</v>
+      <c r="C14" s="83" t="s">
+        <v>88</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="39">
@@ -2643,53 +2640,53 @@
         <v>8</v>
       </c>
       <c r="I14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="K14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="79"/>
+        <v>86</v>
+      </c>
+      <c r="L14" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>9</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="5"/>
       <c r="E15" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="63">
         <v>8</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="81"/>
+        <v>105</v>
+      </c>
+      <c r="L15" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="105"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="5"/>
@@ -2701,14 +2698,14 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>11</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="18"/>
@@ -2716,14 +2713,14 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>12</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="5"/>
@@ -2733,14 +2730,14 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>13</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="G19" s="18"/>
@@ -2748,14 +2745,14 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>14</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="5"/>
@@ -2765,14 +2762,14 @@
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>15</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
@@ -2780,8 +2777,8 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F24" s="3"/>
@@ -2793,13 +2790,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F23:G23"/>
@@ -2816,12 +2812,13 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2861,41 +2858,41 @@
         <v>34</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="D1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="B3" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="4"/>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
     </row>
     <row r="6" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -2908,62 +2905,62 @@
         <v>15</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="101" t="s">
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="105"/>
+      <c r="O6" s="114"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="106">
+      <c r="B7" s="108">
         <v>1</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>95</v>
+      <c r="C7" s="83" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="95"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="109"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="89"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="107"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="18">
@@ -2973,20 +2970,20 @@
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="79"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="107"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="18">
@@ -3003,21 +3000,21 @@
         <v>10</v>
       </c>
       <c r="L9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="N9" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="79"/>
+      <c r="O9" s="87"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="107"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="23">
@@ -3029,24 +3026,24 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="81"/>
+      <c r="N10" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="105"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="23">
@@ -3058,24 +3055,24 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="81"/>
+      <c r="N11" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="105"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="108"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="23">
@@ -3099,20 +3096,20 @@
       <c r="M12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="81"/>
+      <c r="N12" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="105"/>
     </row>
     <row r="13" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="106">
+      <c r="B13" s="108">
         <v>2</v>
       </c>
-      <c r="C13" s="96" t="s">
-        <v>96</v>
+      <c r="C13" s="83" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="18">
@@ -3136,16 +3133,16 @@
       <c r="M13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="100"/>
+      <c r="N13" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="116"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="107"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="23">
@@ -3169,16 +3166,16 @@
       <c r="M14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="81"/>
+      <c r="N14" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="105"/>
     </row>
     <row r="15" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="107"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3"/>
       <c r="G15" s="23">
@@ -3202,16 +3199,16 @@
       <c r="M15" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="81"/>
+      <c r="N15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="105"/>
     </row>
     <row r="16" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="23">
@@ -3223,12 +3220,12 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="81"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="107"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="G17" s="23">
@@ -3240,12 +3237,12 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="108"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="G18" s="23">
@@ -3257,14 +3254,14 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="81"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="106">
+      <c r="B19" s="108">
         <v>3</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3280,12 +3277,12 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
@@ -3299,12 +3296,12 @@
       <c r="K20" s="35"/>
       <c r="L20" s="34"/>
       <c r="M20" s="35"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="105"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="107"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3318,12 +3315,12 @@
       <c r="K21" s="35"/>
       <c r="L21" s="34"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="81"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="107"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3337,12 +3334,12 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="81"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="105"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3356,12 +3353,12 @@
       <c r="K23" s="34"/>
       <c r="L23" s="35"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="105"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="108"/>
-      <c r="C24" s="98"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="2" t="s">
         <v>4</v>
       </c>
@@ -3375,14 +3372,14 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="106">
-        <v>4</v>
-      </c>
-      <c r="C25" s="96" t="s">
+      <c r="B25" s="108">
+        <v>4</v>
+      </c>
+      <c r="C25" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3398,12 +3395,12 @@
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="105"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
@@ -3420,8 +3417,8 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
@@ -3438,44 +3435,44 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="107"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="108"/>
-      <c r="C30" s="98"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3499,6 +3496,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B3:G3"/>
@@ -3515,30 +3536,6 @@
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3554,7 +3551,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3574,75 +3571,75 @@
         <v>34</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="D1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
+      <c r="B3" s="158" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="146" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="94" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="94"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="145"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="148"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="H5" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="150" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
       <c r="M5" s="26" t="s">
         <v>12</v>
       </c>
@@ -3654,33 +3651,33 @@
       <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>60</v>
+      <c r="C6" s="127" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
+      <c r="H6" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="N6" s="167" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -3688,31 +3685,31 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="159" t="s">
-        <v>110</v>
+      <c r="C7" s="127"/>
+      <c r="D7" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="160" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="160" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="168" t="s">
-        <v>78</v>
+      <c r="F7" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3720,31 +3717,31 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="159" t="s">
-        <v>111</v>
+      <c r="C8" s="127"/>
+      <c r="D8" s="64" t="s">
+        <v>110</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="F8" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="160" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="168" t="s">
-        <v>117</v>
+      <c r="H8" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -3752,31 +3749,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="143"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="164" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="164" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="156" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="164" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="168" t="s">
-        <v>78</v>
+      <c r="F9" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -3784,31 +3781,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="159" t="s">
+      <c r="C10" s="127"/>
+      <c r="D10" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="165" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="160" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="168" t="s">
-        <v>78</v>
+      <c r="G10" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -3816,31 +3813,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="159" t="s">
+      <c r="C11" s="127"/>
+      <c r="D11" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="161" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="160" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="168" t="s">
-        <v>78</v>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -3848,7 +3845,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="31" t="s">
         <v>9</v>
       </c>
@@ -3856,23 +3853,23 @@
         <v>32</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
       <c r="M12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="168" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="N12" s="70" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3880,31 +3877,31 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="144"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="166" t="s">
+      <c r="F13" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="166" t="s">
-        <v>78</v>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3934,8 +3931,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3943,94 +3940,94 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="144"/>
     </row>
     <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="119" t="s">
+      <c r="C18" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="D18" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="E18" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="135" t="s">
+      <c r="F18" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="130" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="128" t="s">
+      <c r="I18" s="155"/>
+      <c r="J18" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="128" t="s">
+      <c r="K18" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="125" t="s">
+      <c r="L18" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="119" t="s">
+      <c r="N18" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="120" t="s">
+      <c r="O18" s="136" t="s">
         <v>46</v>
       </c>
+      <c r="P18" s="137" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="140"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="120"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="42">
         <f>SUM(D20:E20)</f>
@@ -4048,28 +4045,30 @@
       <c r="G20" s="49">
         <v>3</v>
       </c>
-      <c r="H20" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="I20" s="118"/>
+      <c r="H20" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="140"/>
       <c r="J20" s="2">
         <f>SUM(K20:L20)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K20" s="44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L20" s="45">
         <v>0</v>
       </c>
       <c r="M20" s="48" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="N20" s="2">
         <f>SUM(O20:P20)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="44"/>
+        <v>5</v>
+      </c>
+      <c r="O20" s="44">
+        <v>5</v>
+      </c>
       <c r="P20" s="45"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -4077,22 +4076,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
@@ -4109,11 +4097,22 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
